--- a/excel/default.xlsx
+++ b/excel/default.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Taufiq-TFQ\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\SIADAM\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0948BAFE-FD93-4801-9B51-DC5A4CF75A02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7740"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -116,9 +117,6 @@
     <t>ODP-KDL-FAC/028</t>
   </si>
   <si>
-    <t>ftp</t>
-  </si>
-  <si>
     <t>null</t>
   </si>
   <si>
@@ -135,12 +133,15 @@
   </si>
   <si>
     <t>ODP-KDL-FAC/036</t>
+  </si>
+  <si>
+    <t>FTP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -453,11 +454,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A4" sqref="A4:U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,7 +498,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -556,14 +557,11 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
       <c r="F2" s="1">
         <v>-6965809645</v>
       </c>
@@ -571,10 +569,10 @@
         <v>11013895754</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J2" t="s">
         <v>23</v>
@@ -592,22 +590,19 @@
         <v>23</v>
       </c>
       <c r="O2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" t="s">
         <v>32</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>33</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>34</v>
       </c>
       <c r="R2" t="s">
         <v>26</v>
       </c>
       <c r="S2" t="s">
         <v>25</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
       </c>
       <c r="U2" s="2">
         <v>43767.371921296297</v>
@@ -621,14 +616,11 @@
         <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
         <v>29</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
       <c r="F3" s="1">
         <v>-6966246309</v>
       </c>
@@ -636,10 +628,10 @@
         <v>11014075641</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s">
         <v>23</v>
@@ -657,22 +649,19 @@
         <v>23</v>
       </c>
       <c r="O3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" t="s">
         <v>32</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>33</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>34</v>
       </c>
       <c r="R3" t="s">
         <v>26</v>
       </c>
       <c r="S3" t="s">
         <v>25</v>
-      </c>
-      <c r="T3">
-        <v>1</v>
       </c>
       <c r="U3" s="2">
         <v>43767.422962962963</v>
